--- a/public/reporte_lcaja.xlsx
+++ b/public/reporte_lcaja.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="144">
   <si>
     <t>SALDO ANT</t>
   </si>
@@ -47,7 +47,7 @@
     <t>CAJA</t>
   </si>
   <si>
-    <t>2025-05-02</t>
+    <t>2025-07-01</t>
   </si>
   <si>
     <t>Ingreso</t>
@@ -56,13 +56,19 @@
     <t>Haber</t>
   </si>
   <si>
+    <t>Saldo Inicial</t>
+  </si>
+  <si>
+    <t>Saldo inicial</t>
+  </si>
+  <si>
+    <t>Principal</t>
+  </si>
+  <si>
     <t>Ofrenda recogida</t>
   </si>
   <si>
-    <t>Principal</t>
-  </si>
-  <si>
-    <t>2025-05-03</t>
+    <t>OFRENDA RECOGIDA</t>
   </si>
   <si>
     <t>Egreso</t>
@@ -71,58 +77,376 @@
     <t>Debe</t>
   </si>
   <si>
+    <t>Otros gastos de gestión</t>
+  </si>
+  <si>
+    <t>1 BOLSA DE PAPEL HIGIENICO</t>
+  </si>
+  <si>
+    <t>1 PAPEL TOALLA NOVA</t>
+  </si>
+  <si>
+    <t>1 GALON DE POET</t>
+  </si>
+  <si>
+    <t>Evangelismo</t>
+  </si>
+  <si>
+    <t>SALDO INICIAL</t>
+  </si>
+  <si>
+    <t>Escuela Bíblica</t>
+  </si>
+  <si>
+    <t>2025-07-03</t>
+  </si>
+  <si>
     <t>Transporte y gastos de viaje</t>
   </si>
   <si>
-    <t>Pasajes mes Pastor Alipio</t>
-  </si>
-  <si>
-    <t>2025-05-06</t>
+    <t>PASAJES A PASTOR ALIPIO</t>
+  </si>
+  <si>
+    <t>COPIAS DE BALANCE</t>
+  </si>
+  <si>
+    <t>ofrenda recogida</t>
+  </si>
+  <si>
+    <t>2025-07-04</t>
   </si>
   <si>
     <t>Diezmo actual</t>
   </si>
   <si>
-    <t>Julia Juárez</t>
-  </si>
-  <si>
-    <t>Leonel Cueva</t>
-  </si>
-  <si>
-    <t>2025-05-10</t>
+    <t>LEONEL CUEVA</t>
+  </si>
+  <si>
+    <t>JESUS CERNA</t>
+  </si>
+  <si>
+    <t>2025-07-05</t>
+  </si>
+  <si>
+    <t>MERCEDES CORCUERA</t>
+  </si>
+  <si>
+    <t>Diezmo anterior</t>
+  </si>
+  <si>
+    <t>CESAREA LIZARRAGA</t>
+  </si>
+  <si>
+    <t>2025-07-06</t>
+  </si>
+  <si>
+    <t>Atención a Visitantes</t>
+  </si>
+  <si>
+    <t>DESAYUNO POR OLLA COMUN</t>
+  </si>
+  <si>
+    <t>2 AGUA MINERAL</t>
+  </si>
+  <si>
+    <t>2025-07-09</t>
+  </si>
+  <si>
+    <t>MIGUEL VALVERDE</t>
+  </si>
+  <si>
+    <t>PASAJES A PASTOR ALIPIO A CASA GRANDE</t>
+  </si>
+  <si>
+    <t>2025-07-10</t>
+  </si>
+  <si>
+    <t>TEODOLINDA GARCIA</t>
   </si>
   <si>
     <t>Compra de flores para el Altar</t>
   </si>
   <si>
-    <t>Compra de flores para todo el templo</t>
-  </si>
-  <si>
-    <t>2025-05-20</t>
-  </si>
-  <si>
-    <t>Julia Juarez - diezmo</t>
-  </si>
-  <si>
-    <t>2025-05-29</t>
-  </si>
-  <si>
-    <t>Otros ingresos de Gestión</t>
-  </si>
-  <si>
-    <t>Otros ingresos</t>
-  </si>
-  <si>
-    <t>Juventud</t>
-  </si>
-  <si>
-    <t>2025-05-30</t>
+    <t>compra de flores</t>
+  </si>
+  <si>
+    <t>2025-07-11</t>
+  </si>
+  <si>
+    <t>SANTOS TANDAIPAN</t>
+  </si>
+  <si>
+    <t>2025-07-13</t>
+  </si>
+  <si>
+    <t>PASAJES A PASTOR ALIPIO A ASCOPE</t>
+  </si>
+  <si>
+    <t>OFRENDA DE NIÑOS</t>
+  </si>
+  <si>
+    <t>2025-07-14</t>
+  </si>
+  <si>
+    <t>Servicios básicos, agua luz</t>
+  </si>
+  <si>
+    <t>PAGO DE LUZ MAS PASAJES</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-16</t>
+  </si>
+  <si>
+    <t>Préstamo x Acción Social</t>
+  </si>
+  <si>
+    <t>reposicion xD</t>
+  </si>
+  <si>
+    <t>2025-07-17</t>
+  </si>
+  <si>
+    <t>IMPRESIÓN DE PLAN DE TRABAJO DE IGLESIA</t>
+  </si>
+  <si>
+    <t>2025-07-18</t>
+  </si>
+  <si>
+    <t>MARIA ARROYO</t>
+  </si>
+  <si>
+    <t>2025-07-19</t>
+  </si>
+  <si>
+    <t>KEVIN LOYOLA</t>
+  </si>
+  <si>
+    <t>2025-07-20</t>
+  </si>
+  <si>
+    <t>AGUA MINERAL 20 LT MAS MOTO</t>
+  </si>
+  <si>
+    <t>CALDO MAS PAN POR AYUNO</t>
+  </si>
+  <si>
+    <t>2025-07-21</t>
+  </si>
+  <si>
+    <t>FAM BURGOS PAREDES</t>
+  </si>
+  <si>
+    <t>JOSE JUAREZ</t>
+  </si>
+  <si>
+    <t>Tributos gobierno central</t>
+  </si>
+  <si>
+    <t>PAGO POR TRIBUTO A SUNAT MES DE JUNIO</t>
+  </si>
+  <si>
+    <t>2025-07-22</t>
+  </si>
+  <si>
+    <t>2025-07-23</t>
+  </si>
+  <si>
+    <t>PASAJE A PASTOR A LA ESPERANZA POR ANIVERSARIO</t>
+  </si>
+  <si>
+    <t>1 BOLSA DE PINTURA PATO 5KG</t>
+  </si>
+  <si>
+    <t>2 LIJAS</t>
+  </si>
+  <si>
+    <t>1 BALDE PINTURA 20 LT LATEX</t>
+  </si>
+  <si>
+    <t>1 TOMACORRIENTE</t>
+  </si>
+  <si>
+    <t>1 GRIFO DE LAVACARA PARA BAÑO</t>
+  </si>
+  <si>
+    <t>1 JUEGO DE ACCESORIOS DE TANQUE DE AGUA</t>
+  </si>
+  <si>
+    <t>1 TAPA DE INODORO</t>
+  </si>
+  <si>
+    <t>Gastos varios</t>
+  </si>
+  <si>
+    <t>PAPEL TOALLA NOVA</t>
+  </si>
+  <si>
+    <t>1 GALON DE LEJIA CLOROX</t>
+  </si>
+  <si>
+    <t>1 LT DE CERA DE MADERA</t>
+  </si>
+  <si>
+    <t>1 BOLSA DE PAPEL RENDIPEL</t>
+  </si>
+  <si>
+    <t>PASAJES POR COMPRA</t>
+  </si>
+  <si>
+    <t>3 KG DE DETERGENTE</t>
+  </si>
+  <si>
+    <t>500 PLATOS DE TECNOPORT N 22</t>
+  </si>
+  <si>
+    <t>500 TENEDOR N 10</t>
+  </si>
+  <si>
+    <t>1 MILLAR DE VASOS N 9</t>
+  </si>
+  <si>
+    <t>200 BANDEJAS</t>
+  </si>
+  <si>
+    <t>75 BANDEJAS CON TAPA</t>
+  </si>
+  <si>
+    <t>2 PQT DE BOLSAS</t>
+  </si>
+  <si>
+    <t>préstamo x acción social</t>
+  </si>
+  <si>
+    <t>Medicina para hno. Obando</t>
+  </si>
+  <si>
+    <t>2025-07-24</t>
+  </si>
+  <si>
+    <t>Ofrenda visitantes</t>
+  </si>
+  <si>
+    <t>OFRENDA DE AMOR CHENIER JUAREZ</t>
+  </si>
+  <si>
+    <t>COMPRA DE FLORES</t>
+  </si>
+  <si>
+    <t>2025-07-25</t>
+  </si>
+  <si>
+    <t>2025-07-27</t>
+  </si>
+  <si>
+    <t>OFRENDA DE AMOR IVON SALVADOR</t>
+  </si>
+  <si>
+    <t>NICOLASA VILLANUEVA</t>
+  </si>
+  <si>
+    <t>OFRENDA NIÑOS</t>
+  </si>
+  <si>
+    <t>2025-07-28</t>
+  </si>
+  <si>
+    <t>PASAJE A PASTOR Y DIACONOS FIESTA GRANDE</t>
+  </si>
+  <si>
+    <t>2025-07-29</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>RAQUEL UCEDA</t>
+  </si>
+  <si>
+    <t>apoyo social</t>
+  </si>
+  <si>
+    <t>2025-07-31</t>
+  </si>
+  <si>
+    <t>MARIA ROMAN</t>
+  </si>
+  <si>
+    <t>FAM SALVADOR BUENO</t>
+  </si>
+  <si>
+    <t>FAM REYES ROMAN</t>
+  </si>
+  <si>
+    <t>IVAN GOMEZ</t>
+  </si>
+  <si>
+    <t>Ofrenda misionera</t>
+  </si>
+  <si>
+    <t>OFRENDA MISIONERA DEL PUEBLO</t>
+  </si>
+  <si>
+    <t>OFRENDA DE AMOR JUAN SALVADOR</t>
+  </si>
+  <si>
+    <t>ALBERTO ORTIZ</t>
+  </si>
+  <si>
+    <t>FAM SANGAY GUEVARA</t>
   </si>
   <si>
     <t>Remuneracion-Pastor-Copastor</t>
   </si>
   <si>
-    <t>Pago a copastor</t>
+    <t>SUELDO PASTORAL</t>
+  </si>
+  <si>
+    <t>OFRENDA DE AMOR A COPASTOR</t>
+  </si>
+  <si>
+    <t>Otras remuneraciones-labores varias</t>
+  </si>
+  <si>
+    <t>OFRENDA DE AMOR A HNO POR LIMPIEZA</t>
+  </si>
+  <si>
+    <t>OFRENDA DE AMOR POR ATENCION A HNO OBANDO</t>
+  </si>
+  <si>
+    <t>OFRENDA MISIONERA</t>
+  </si>
+  <si>
+    <t>OFRENDA DE AMOR A PASTOR ALBERTO</t>
+  </si>
+  <si>
+    <t>PAGO DE AGUA</t>
+  </si>
+  <si>
+    <t>CUOTA DE MEDICINA HNO OBANDO</t>
+  </si>
+  <si>
+    <t>DIEZMO DE LOS DIEZMOS</t>
+  </si>
+  <si>
+    <t>Aporte directivos  para la limpieza</t>
+  </si>
+  <si>
+    <t>Aporte directivos para la limpieza</t>
+  </si>
+  <si>
+    <t>Apoyo social</t>
+  </si>
+  <si>
+    <t>Gastos por limpieza del templo</t>
+  </si>
+  <si>
+    <t>MEDICINA PARA HNO OBANDO</t>
+  </si>
+  <si>
+    <t>GASTOS POR LIMPIEZA TEMPLO</t>
   </si>
 </sst>
 </file>
@@ -462,7 +786,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,9 +800,9 @@
     <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="4.57" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="36.42" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="43.561" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="42.418" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="55.272" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="18.71" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -486,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>3119.69999999999982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -526,7 +850,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>16.0</v>
+        <v>2682.48999999999978</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -535,16 +859,16 @@
         <v>12</v>
       </c>
       <c r="F4">
-        <v>753</v>
+        <v>140</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -552,28 +876,28 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>300.0</v>
+        <v>16.5</v>
       </c>
       <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>753</v>
+      </c>
+      <c r="G5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>17</v>
       </c>
-      <c r="F5">
-        <v>631</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -581,28 +905,28 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>17.6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>655</v>
+      </c>
+      <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="C6">
-        <v>30.0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6">
-        <v>751</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>21</v>
       </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -610,28 +934,28 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>20.5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>655</v>
+      </c>
+      <c r="G7" t="s">
         <v>20</v>
       </c>
-      <c r="C7">
-        <v>363.0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7">
-        <v>751</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -639,28 +963,28 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>55.5</v>
+        <v>14.9</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F8">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -668,10 +992,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>55.5</v>
+        <v>471.39999999999998</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -680,16 +1004,16 @@
         <v>12</v>
       </c>
       <c r="F9">
-        <v>751</v>
+        <v>140</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -697,10 +1021,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>106.0</v>
+        <v>395.0</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -709,16 +1033,16 @@
         <v>12</v>
       </c>
       <c r="F10">
-        <v>759</v>
+        <v>140</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -726,28 +1050,2812 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>300.0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11">
+        <v>631</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>4.0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12">
+        <v>655</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13">
+        <v>21.4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>753</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>18.2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>753</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>210.0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>751</v>
+      </c>
+      <c r="G15" t="s">
         <v>33</v>
       </c>
-      <c r="C11">
+      <c r="H15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <v>177.0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>751</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17">
+        <v>50.0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>751</v>
+      </c>
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <v>50.0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>752</v>
+      </c>
+      <c r="G18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <v>89.099999999999994</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <v>753</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20">
+        <v>55.0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20">
+        <v>625</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21">
+        <v>2.0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21">
+        <v>625</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22">
+        <v>67.8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22">
+        <v>751</v>
+      </c>
+      <c r="G22" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23">
+        <v>10.0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23">
+        <v>631</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24">
+        <v>30.0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24">
+        <v>751</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25">
+        <v>20.4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25">
+        <v>753</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26">
+        <v>50.0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26">
+        <v>656</v>
+      </c>
+      <c r="G26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27">
+        <v>50.0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27">
+        <v>751</v>
+      </c>
+      <c r="G27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28">
+        <v>33.1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28">
+        <v>753</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29">
+        <v>20.0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29">
+        <v>631</v>
+      </c>
+      <c r="G29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30">
+        <v>2.5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30">
+        <v>753</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" t="s">
+        <v>55</v>
+      </c>
+      <c r="I30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31">
+        <v>8.0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31">
+        <v>753</v>
+      </c>
+      <c r="G31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32">
+        <v>162.69999999999999</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32">
+        <v>636</v>
+      </c>
+      <c r="G32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32" t="s">
+        <v>58</v>
+      </c>
+      <c r="I32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33">
+        <v>20.6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33">
+        <v>753</v>
+      </c>
+      <c r="G33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34">
+        <v>50.0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34">
+        <v>141</v>
+      </c>
+      <c r="G34" t="s">
+        <v>61</v>
+      </c>
+      <c r="H34" t="s">
+        <v>62</v>
+      </c>
+      <c r="I34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35">
+        <v>4.0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35">
+        <v>655</v>
+      </c>
+      <c r="G35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36">
+        <v>12.6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36">
+        <v>753</v>
+      </c>
+      <c r="G36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37">
+        <v>16.7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37">
+        <v>753</v>
+      </c>
+      <c r="G37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38">
+        <v>100.0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38">
+        <v>751</v>
+      </c>
+      <c r="G38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" t="s">
+        <v>66</v>
+      </c>
+      <c r="I38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39">
+        <v>50.0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39">
+        <v>751</v>
+      </c>
+      <c r="G39" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" t="s">
+        <v>68</v>
+      </c>
+      <c r="I39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40">
+        <v>11.0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40">
+        <v>655</v>
+      </c>
+      <c r="G40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" t="s">
+        <v>70</v>
+      </c>
+      <c r="I40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41">
+        <v>625</v>
+      </c>
+      <c r="G41" t="s">
+        <v>41</v>
+      </c>
+      <c r="H41" t="s">
+        <v>71</v>
+      </c>
+      <c r="I41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42">
+        <v>25.2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42">
+        <v>753</v>
+      </c>
+      <c r="G42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43">
+        <v>258.0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43">
+        <v>751</v>
+      </c>
+      <c r="G43" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" t="s">
+        <v>73</v>
+      </c>
+      <c r="I43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44">
+        <v>100.0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44">
+        <v>751</v>
+      </c>
+      <c r="G44" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" t="s">
+        <v>74</v>
+      </c>
+      <c r="I44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45">
+        <v>41.0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45">
+        <v>641</v>
+      </c>
+      <c r="G45" t="s">
+        <v>75</v>
+      </c>
+      <c r="H45" t="s">
+        <v>76</v>
+      </c>
+      <c r="I45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46">
+        <v>15.9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46">
+        <v>753</v>
+      </c>
+      <c r="G46" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47">
+        <v>20.0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47">
+        <v>631</v>
+      </c>
+      <c r="G47" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" t="s">
+        <v>79</v>
+      </c>
+      <c r="I47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48">
+        <v>12.0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48">
+        <v>655</v>
+      </c>
+      <c r="G48" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" t="s">
+        <v>80</v>
+      </c>
+      <c r="I48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49">
+        <v>5.5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49">
+        <v>655</v>
+      </c>
+      <c r="G49" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" t="s">
+        <v>81</v>
+      </c>
+      <c r="I49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50">
+        <v>90.0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50">
+        <v>655</v>
+      </c>
+      <c r="G50" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" t="s">
+        <v>82</v>
+      </c>
+      <c r="I50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51">
+        <v>11.9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51">
+        <v>655</v>
+      </c>
+      <c r="G51" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" t="s">
+        <v>83</v>
+      </c>
+      <c r="I51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52">
+        <v>34.9</v>
+      </c>
+      <c r="D52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52">
+        <v>655</v>
+      </c>
+      <c r="G52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" t="s">
+        <v>84</v>
+      </c>
+      <c r="I52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>56.9</v>
+      </c>
+      <c r="D53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53">
+        <v>655</v>
+      </c>
+      <c r="G53" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" t="s">
+        <v>85</v>
+      </c>
+      <c r="I53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54">
+        <v>36.9</v>
+      </c>
+      <c r="D54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54">
+        <v>655</v>
+      </c>
+      <c r="G54" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" t="s">
+        <v>86</v>
+      </c>
+      <c r="I54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55">
+        <v>20.4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55">
+        <v>654</v>
+      </c>
+      <c r="G55" t="s">
+        <v>87</v>
+      </c>
+      <c r="H55" t="s">
+        <v>88</v>
+      </c>
+      <c r="I55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56">
+        <v>10.6</v>
+      </c>
+      <c r="D56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56">
+        <v>655</v>
+      </c>
+      <c r="G56" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" t="s">
+        <v>89</v>
+      </c>
+      <c r="I56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57">
+        <v>11.89</v>
+      </c>
+      <c r="D57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57">
+        <v>655</v>
+      </c>
+      <c r="G57" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" t="s">
+        <v>90</v>
+      </c>
+      <c r="I57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58">
+        <v>18.0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58">
+        <v>655</v>
+      </c>
+      <c r="G58" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" t="s">
+        <v>91</v>
+      </c>
+      <c r="I58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59">
+        <v>20.0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59">
+        <v>631</v>
+      </c>
+      <c r="G59" t="s">
+        <v>28</v>
+      </c>
+      <c r="H59" t="s">
+        <v>92</v>
+      </c>
+      <c r="I59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60">
+        <v>15.0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60">
+        <v>655</v>
+      </c>
+      <c r="G60" t="s">
+        <v>20</v>
+      </c>
+      <c r="H60" t="s">
+        <v>93</v>
+      </c>
+      <c r="I60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61">
+        <v>95.0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61">
+        <v>655</v>
+      </c>
+      <c r="G61" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" t="s">
+        <v>94</v>
+      </c>
+      <c r="I61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62">
+        <v>26.5</v>
+      </c>
+      <c r="D62" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62">
+        <v>655</v>
+      </c>
+      <c r="G62" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62" t="s">
+        <v>95</v>
+      </c>
+      <c r="I62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63">
+        <v>46.0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63">
+        <v>655</v>
+      </c>
+      <c r="G63" t="s">
+        <v>20</v>
+      </c>
+      <c r="H63" t="s">
+        <v>96</v>
+      </c>
+      <c r="I63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64">
+        <v>19.0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64">
+        <v>655</v>
+      </c>
+      <c r="G64" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64" t="s">
+        <v>97</v>
+      </c>
+      <c r="I64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65">
+        <v>25.5</v>
+      </c>
+      <c r="D65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65">
+        <v>655</v>
+      </c>
+      <c r="G65" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" t="s">
+        <v>98</v>
+      </c>
+      <c r="I65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66">
+        <v>4.2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" t="s">
+        <v>19</v>
+      </c>
+      <c r="F66">
+        <v>655</v>
+      </c>
+      <c r="G66" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" t="s">
+        <v>99</v>
+      </c>
+      <c r="I66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67">
+        <v>205.0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67">
+        <v>141</v>
+      </c>
+      <c r="G67" t="s">
+        <v>61</v>
+      </c>
+      <c r="H67" t="s">
+        <v>100</v>
+      </c>
+      <c r="I67" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68">
+        <v>10.0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68">
+        <v>654</v>
+      </c>
+      <c r="G68" t="s">
+        <v>87</v>
+      </c>
+      <c r="H68" t="s">
+        <v>101</v>
+      </c>
+      <c r="I68" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="B69" t="s">
+        <v>102</v>
+      </c>
+      <c r="C69">
+        <v>9.0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69">
+        <v>755</v>
+      </c>
+      <c r="G69" t="s">
+        <v>103</v>
+      </c>
+      <c r="H69" t="s">
+        <v>104</v>
+      </c>
+      <c r="I69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70" t="s">
+        <v>102</v>
+      </c>
+      <c r="C70">
+        <v>50.0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" t="s">
+        <v>19</v>
+      </c>
+      <c r="F70">
+        <v>656</v>
+      </c>
+      <c r="G70" t="s">
+        <v>49</v>
+      </c>
+      <c r="H70" t="s">
+        <v>105</v>
+      </c>
+      <c r="I70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71" t="s">
+        <v>102</v>
+      </c>
+      <c r="C71">
+        <v>21.6</v>
+      </c>
+      <c r="D71" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71">
+        <v>753</v>
+      </c>
+      <c r="G71" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" t="s">
+        <v>31</v>
+      </c>
+      <c r="I71" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72" t="s">
+        <v>106</v>
+      </c>
+      <c r="C72">
+        <v>17.7</v>
+      </c>
+      <c r="D72" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72">
+        <v>753</v>
+      </c>
+      <c r="G72" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" t="s">
+        <v>17</v>
+      </c>
+      <c r="I72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73" t="s">
+        <v>107</v>
+      </c>
+      <c r="C73">
+        <v>150.0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73">
+        <v>755</v>
+      </c>
+      <c r="G73" t="s">
+        <v>103</v>
+      </c>
+      <c r="H73" t="s">
+        <v>108</v>
+      </c>
+      <c r="I73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="B74" t="s">
+        <v>107</v>
+      </c>
+      <c r="C74">
+        <v>20.0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74">
+        <v>751</v>
+      </c>
+      <c r="G74" t="s">
+        <v>33</v>
+      </c>
+      <c r="H74" t="s">
+        <v>109</v>
+      </c>
+      <c r="I74" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75">
+        <v>72</v>
+      </c>
+      <c r="B75" t="s">
+        <v>107</v>
+      </c>
+      <c r="C75">
+        <v>2.0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75">
+        <v>753</v>
+      </c>
+      <c r="G75" t="s">
+        <v>16</v>
+      </c>
+      <c r="H75" t="s">
+        <v>110</v>
+      </c>
+      <c r="I75" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76">
+        <v>73</v>
+      </c>
+      <c r="B76" t="s">
+        <v>107</v>
+      </c>
+      <c r="C76">
+        <v>22.8</v>
+      </c>
+      <c r="D76" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76">
+        <v>753</v>
+      </c>
+      <c r="G76" t="s">
+        <v>16</v>
+      </c>
+      <c r="H76" t="s">
+        <v>17</v>
+      </c>
+      <c r="I76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77">
+        <v>74</v>
+      </c>
+      <c r="B77" t="s">
+        <v>111</v>
+      </c>
+      <c r="C77">
+        <v>50.0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77">
+        <v>631</v>
+      </c>
+      <c r="G77" t="s">
+        <v>28</v>
+      </c>
+      <c r="H77" t="s">
+        <v>112</v>
+      </c>
+      <c r="I77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78">
+        <v>75</v>
+      </c>
+      <c r="B78" t="s">
+        <v>113</v>
+      </c>
+      <c r="C78">
+        <v>40.0</v>
+      </c>
+      <c r="D78" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" t="s">
+        <v>19</v>
+      </c>
+      <c r="F78">
+        <v>631</v>
+      </c>
+      <c r="G78" t="s">
+        <v>28</v>
+      </c>
+      <c r="H78" t="s">
+        <v>112</v>
+      </c>
+      <c r="I78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79">
+        <v>76</v>
+      </c>
+      <c r="B79" t="s">
+        <v>114</v>
+      </c>
+      <c r="C79">
+        <v>200.0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79">
+        <v>751</v>
+      </c>
+      <c r="G79" t="s">
+        <v>33</v>
+      </c>
+      <c r="H79" t="s">
+        <v>115</v>
+      </c>
+      <c r="I79" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80">
+        <v>77</v>
+      </c>
+      <c r="B80" t="s">
+        <v>114</v>
+      </c>
+      <c r="C80">
+        <v>195.0</v>
+      </c>
+      <c r="D80" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80">
+        <v>141</v>
+      </c>
+      <c r="G80" t="s">
+        <v>61</v>
+      </c>
+      <c r="H80" t="s">
+        <v>116</v>
+      </c>
+      <c r="I80" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81">
+        <v>78</v>
+      </c>
+      <c r="B81" t="s">
+        <v>117</v>
+      </c>
+      <c r="C81">
+        <v>50.0</v>
+      </c>
+      <c r="D81" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81">
+        <v>751</v>
+      </c>
+      <c r="G81" t="s">
+        <v>33</v>
+      </c>
+      <c r="H81" t="s">
+        <v>39</v>
+      </c>
+      <c r="I81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82">
+        <v>79</v>
+      </c>
+      <c r="B82" t="s">
+        <v>117</v>
+      </c>
+      <c r="C82">
+        <v>40.0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82">
+        <v>751</v>
+      </c>
+      <c r="G82" t="s">
+        <v>33</v>
+      </c>
+      <c r="H82" t="s">
+        <v>118</v>
+      </c>
+      <c r="I82" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83">
+        <v>80</v>
+      </c>
+      <c r="B83" t="s">
+        <v>117</v>
+      </c>
+      <c r="C83">
+        <v>150.0</v>
+      </c>
+      <c r="D83" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83">
+        <v>751</v>
+      </c>
+      <c r="G83" t="s">
+        <v>33</v>
+      </c>
+      <c r="H83" t="s">
+        <v>119</v>
+      </c>
+      <c r="I83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84">
+        <v>81</v>
+      </c>
+      <c r="B84" t="s">
+        <v>117</v>
+      </c>
+      <c r="C84">
+        <v>160.0</v>
+      </c>
+      <c r="D84" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84">
+        <v>751</v>
+      </c>
+      <c r="G84" t="s">
+        <v>33</v>
+      </c>
+      <c r="H84" t="s">
+        <v>120</v>
+      </c>
+      <c r="I84" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85">
+        <v>82</v>
+      </c>
+      <c r="B85" t="s">
+        <v>117</v>
+      </c>
+      <c r="C85">
+        <v>500.0</v>
+      </c>
+      <c r="D85" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85">
+        <v>751</v>
+      </c>
+      <c r="G85" t="s">
+        <v>33</v>
+      </c>
+      <c r="H85" t="s">
+        <v>121</v>
+      </c>
+      <c r="I85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86">
+        <v>83</v>
+      </c>
+      <c r="B86" t="s">
+        <v>117</v>
+      </c>
+      <c r="C86">
+        <v>46.0</v>
+      </c>
+      <c r="D86" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86">
+        <v>754</v>
+      </c>
+      <c r="G86" t="s">
+        <v>122</v>
+      </c>
+      <c r="H86" t="s">
+        <v>123</v>
+      </c>
+      <c r="I86" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87">
+        <v>84</v>
+      </c>
+      <c r="B87" t="s">
+        <v>117</v>
+      </c>
+      <c r="C87">
+        <v>205.0</v>
+      </c>
+      <c r="D87" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87">
+        <v>755</v>
+      </c>
+      <c r="G87" t="s">
+        <v>103</v>
+      </c>
+      <c r="H87" t="s">
+        <v>124</v>
+      </c>
+      <c r="I87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88">
+        <v>85</v>
+      </c>
+      <c r="B88" t="s">
+        <v>117</v>
+      </c>
+      <c r="C88">
+        <v>400.0</v>
+      </c>
+      <c r="D88" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88">
+        <v>751</v>
+      </c>
+      <c r="G88" t="s">
+        <v>33</v>
+      </c>
+      <c r="H88" t="s">
+        <v>125</v>
+      </c>
+      <c r="I88" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89">
+        <v>86</v>
+      </c>
+      <c r="B89" t="s">
+        <v>117</v>
+      </c>
+      <c r="C89">
+        <v>180.0</v>
+      </c>
+      <c r="D89" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89">
+        <v>751</v>
+      </c>
+      <c r="G89" t="s">
+        <v>33</v>
+      </c>
+      <c r="H89" t="s">
+        <v>35</v>
+      </c>
+      <c r="I89" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90">
+        <v>87</v>
+      </c>
+      <c r="B90" t="s">
+        <v>117</v>
+      </c>
+      <c r="C90">
+        <v>100.0</v>
+      </c>
+      <c r="D90" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90">
+        <v>751</v>
+      </c>
+      <c r="G90" t="s">
+        <v>33</v>
+      </c>
+      <c r="H90" t="s">
+        <v>126</v>
+      </c>
+      <c r="I90" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91">
+        <v>88</v>
+      </c>
+      <c r="B91" t="s">
+        <v>117</v>
+      </c>
+      <c r="C91">
+        <v>1025.0</v>
+      </c>
+      <c r="D91" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91" t="s">
+        <v>19</v>
+      </c>
+      <c r="F91">
+        <v>623</v>
+      </c>
+      <c r="G91" t="s">
+        <v>127</v>
+      </c>
+      <c r="H91" t="s">
+        <v>128</v>
+      </c>
+      <c r="I91" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92">
+        <v>89</v>
+      </c>
+      <c r="B92" t="s">
+        <v>117</v>
+      </c>
+      <c r="C92">
+        <v>500.0</v>
+      </c>
+      <c r="D92" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92" t="s">
+        <v>19</v>
+      </c>
+      <c r="F92">
+        <v>623</v>
+      </c>
+      <c r="G92" t="s">
+        <v>127</v>
+      </c>
+      <c r="H92" t="s">
+        <v>129</v>
+      </c>
+      <c r="I92" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93">
+        <v>90</v>
+      </c>
+      <c r="B93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C93">
         <v>250.0</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D93" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" t="s">
+        <v>19</v>
+      </c>
+      <c r="F93">
+        <v>622</v>
+      </c>
+      <c r="G93" t="s">
+        <v>130</v>
+      </c>
+      <c r="H93" t="s">
+        <v>131</v>
+      </c>
+      <c r="I93" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94">
+        <v>91</v>
+      </c>
+      <c r="B94" t="s">
+        <v>117</v>
+      </c>
+      <c r="C94">
+        <v>180.0</v>
+      </c>
+      <c r="D94" t="s">
+        <v>18</v>
+      </c>
+      <c r="E94" t="s">
+        <v>19</v>
+      </c>
+      <c r="F94">
+        <v>622</v>
+      </c>
+      <c r="G94" t="s">
+        <v>130</v>
+      </c>
+      <c r="H94" t="s">
+        <v>132</v>
+      </c>
+      <c r="I94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95">
+        <v>92</v>
+      </c>
+      <c r="B95" t="s">
+        <v>117</v>
+      </c>
+      <c r="C95">
+        <v>120.0</v>
+      </c>
+      <c r="D95" t="s">
+        <v>18</v>
+      </c>
+      <c r="E95" t="s">
+        <v>19</v>
+      </c>
+      <c r="F95">
+        <v>622</v>
+      </c>
+      <c r="G95" t="s">
+        <v>130</v>
+      </c>
+      <c r="H95" t="s">
+        <v>133</v>
+      </c>
+      <c r="I95" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96">
+        <v>93</v>
+      </c>
+      <c r="B96" t="s">
+        <v>117</v>
+      </c>
+      <c r="C96">
+        <v>50.0</v>
+      </c>
+      <c r="D96" t="s">
+        <v>18</v>
+      </c>
+      <c r="E96" t="s">
+        <v>19</v>
+      </c>
+      <c r="F96">
+        <v>622</v>
+      </c>
+      <c r="G96" t="s">
+        <v>130</v>
+      </c>
+      <c r="H96" t="s">
+        <v>134</v>
+      </c>
+      <c r="I96" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97">
+        <v>94</v>
+      </c>
+      <c r="B97" t="s">
+        <v>117</v>
+      </c>
+      <c r="C97">
+        <v>16.0</v>
+      </c>
+      <c r="D97" t="s">
+        <v>18</v>
+      </c>
+      <c r="E97" t="s">
+        <v>19</v>
+      </c>
+      <c r="F97">
+        <v>636</v>
+      </c>
+      <c r="G97" t="s">
+        <v>57</v>
+      </c>
+      <c r="H97" t="s">
+        <v>135</v>
+      </c>
+      <c r="I97" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98">
+        <v>95</v>
+      </c>
+      <c r="B98" t="s">
+        <v>117</v>
+      </c>
+      <c r="C98">
+        <v>10.0</v>
+      </c>
+      <c r="D98" t="s">
+        <v>18</v>
+      </c>
+      <c r="E98" t="s">
+        <v>19</v>
+      </c>
+      <c r="F98">
+        <v>622</v>
+      </c>
+      <c r="G98" t="s">
+        <v>130</v>
+      </c>
+      <c r="H98" t="s">
+        <v>136</v>
+      </c>
+      <c r="I98" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99">
+        <v>96</v>
+      </c>
+      <c r="B99" t="s">
+        <v>117</v>
+      </c>
+      <c r="C99">
+        <v>294.27999999999997</v>
+      </c>
+      <c r="D99" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99" t="s">
+        <v>19</v>
+      </c>
+      <c r="F99">
+        <v>622</v>
+      </c>
+      <c r="G99" t="s">
+        <v>130</v>
+      </c>
+      <c r="H99" t="s">
+        <v>137</v>
+      </c>
+      <c r="I99" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100">
+        <v>97</v>
+      </c>
+      <c r="B100" t="s">
+        <v>117</v>
+      </c>
+      <c r="C100">
+        <v>22.0</v>
+      </c>
+      <c r="D100" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100">
+        <v>753</v>
+      </c>
+      <c r="G100" t="s">
         <v>16</v>
       </c>
-      <c r="E11" t="s">
+      <c r="H100" t="s">
+        <v>31</v>
+      </c>
+      <c r="I100" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101">
+        <v>98</v>
+      </c>
+      <c r="B101" t="s">
+        <v>117</v>
+      </c>
+      <c r="C101">
+        <v>60.0</v>
+      </c>
+      <c r="D101" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101">
+        <v>750</v>
+      </c>
+      <c r="G101" t="s">
+        <v>138</v>
+      </c>
+      <c r="H101" t="s">
+        <v>139</v>
+      </c>
+      <c r="I101" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102">
+        <v>99</v>
+      </c>
+      <c r="B102" t="s">
+        <v>117</v>
+      </c>
+      <c r="C102">
+        <v>1050.0</v>
+      </c>
+      <c r="D102" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102">
+        <v>141</v>
+      </c>
+      <c r="G102" t="s">
+        <v>61</v>
+      </c>
+      <c r="H102" t="s">
+        <v>140</v>
+      </c>
+      <c r="I102" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103">
+        <v>100</v>
+      </c>
+      <c r="B103" t="s">
+        <v>117</v>
+      </c>
+      <c r="C103">
+        <v>100.0</v>
+      </c>
+      <c r="D103" t="s">
+        <v>18</v>
+      </c>
+      <c r="E103" t="s">
+        <v>19</v>
+      </c>
+      <c r="F103">
+        <v>622</v>
+      </c>
+      <c r="G103" t="s">
+        <v>130</v>
+      </c>
+      <c r="H103" t="s">
+        <v>141</v>
+      </c>
+      <c r="I103" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104">
+        <v>101</v>
+      </c>
+      <c r="B104" t="s">
+        <v>117</v>
+      </c>
+      <c r="C104">
+        <v>28.0</v>
+      </c>
+      <c r="D104" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104">
+        <v>750</v>
+      </c>
+      <c r="G104" t="s">
+        <v>138</v>
+      </c>
+      <c r="H104" t="s">
         <v>17</v>
       </c>
-      <c r="F11">
-        <v>623</v>
-      </c>
-      <c r="G11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
+      <c r="I104" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105">
+        <v>102</v>
+      </c>
+      <c r="B105" t="s">
+        <v>117</v>
+      </c>
+      <c r="C105">
+        <v>22.0</v>
+      </c>
+      <c r="D105" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105">
+        <v>141</v>
+      </c>
+      <c r="G105" t="s">
+        <v>61</v>
+      </c>
+      <c r="H105" t="s">
+        <v>17</v>
+      </c>
+      <c r="I105" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106">
+        <v>103</v>
+      </c>
+      <c r="B106" t="s">
+        <v>117</v>
+      </c>
+      <c r="C106">
+        <v>10.0</v>
+      </c>
+      <c r="D106" t="s">
+        <v>18</v>
+      </c>
+      <c r="E106" t="s">
+        <v>19</v>
+      </c>
+      <c r="F106">
+        <v>655</v>
+      </c>
+      <c r="G106" t="s">
+        <v>20</v>
+      </c>
+      <c r="H106" t="s">
+        <v>142</v>
+      </c>
+      <c r="I106" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107">
+        <v>104</v>
+      </c>
+      <c r="B107" t="s">
+        <v>117</v>
+      </c>
+      <c r="C107">
+        <v>80.0</v>
+      </c>
+      <c r="D107" t="s">
+        <v>18</v>
+      </c>
+      <c r="E107" t="s">
+        <v>19</v>
+      </c>
+      <c r="F107">
+        <v>622</v>
+      </c>
+      <c r="G107" t="s">
+        <v>130</v>
+      </c>
+      <c r="H107" t="s">
+        <v>143</v>
+      </c>
+      <c r="I107" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
